--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H2">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N2">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q2">
-        <v>20.56857045484306</v>
+        <v>26.42490667533911</v>
       </c>
       <c r="R2">
-        <v>20.56857045484306</v>
+        <v>237.824160078052</v>
       </c>
       <c r="S2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="T2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H3">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q3">
-        <v>46.57745673569815</v>
+        <v>48.95733485634367</v>
       </c>
       <c r="R3">
-        <v>46.57745673569815</v>
+        <v>440.6160137070931</v>
       </c>
       <c r="S3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="T3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H4">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.0229714342534</v>
+        <v>13.19647366666667</v>
       </c>
       <c r="N4">
-        <v>11.0229714342534</v>
+        <v>39.589421</v>
       </c>
       <c r="O4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="P4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="Q4">
-        <v>19.19410424500597</v>
+        <v>23.85394140104211</v>
       </c>
       <c r="R4">
-        <v>19.19410424500597</v>
+        <v>214.685472609379</v>
       </c>
       <c r="S4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="T4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
     </row>
   </sheetData>
